--- a/biology/Biochimie/Acide_gamma-amino-bêta-hydroxybutyrique/Acide_gamma-amino-bêta-hydroxybutyrique.xlsx
+++ b/biology/Biochimie/Acide_gamma-amino-bêta-hydroxybutyrique/Acide_gamma-amino-bêta-hydroxybutyrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_gamma-amino-b%C3%AAta-hydroxybutyrique</t>
+          <t>Acide_gamma-amino-bêta-hydroxybutyrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'acide γ-amino-β-hydroxybutyrique (GABOB) est un métabolite endogène analogue au GABA, neurotransmetteur important du cerveau, et susceptible de ce fait de jouer lui-même le rôle de neurotransmetteur[2],[3]. Il possède un effet inhibiteur plus puissant que le GABA sur le système nerveux central, peut-être en relation avec sa meilleure capacité à franchir la barrière hémato-encéphalique[3],[4].
-Il possède également un effet antiépileptique qui le fait utiliser comme médicament dans cette indication ; cet effet antiépileptique est cependant assez faible lorsqu'il est utilisé seul, ce qui fait qu'on l'emploie comme traitement complémentaire parallèlement à un autre antiépileptique[5],[6].
-Le GABOB possède deux énantiomères, l'isomère (3S) D-GABOB étant deux fois plus puissant que l'isomère (3R) L-GABOB[7].
+L'acide γ-amino-β-hydroxybutyrique (GABOB) est un métabolite endogène analogue au GABA, neurotransmetteur important du cerveau, et susceptible de ce fait de jouer lui-même le rôle de neurotransmetteur,. Il possède un effet inhibiteur plus puissant que le GABA sur le système nerveux central, peut-être en relation avec sa meilleure capacité à franchir la barrière hémato-encéphalique,.
+Il possède également un effet antiépileptique qui le fait utiliser comme médicament dans cette indication ; cet effet antiépileptique est cependant assez faible lorsqu'il est utilisé seul, ce qui fait qu'on l'emploie comme traitement complémentaire parallèlement à un autre antiépileptique,.
+Le GABOB possède deux énantiomères, l'isomère (3S) D-GABOB étant deux fois plus puissant que l'isomère (3R) L-GABOB.
 </t>
         </is>
       </c>
